--- a/Book1.xlsx
+++ b/Book1.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\layex\NITRdissertationTemplateV4.5.1\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\layex\Thesis\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7050" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7050"/>
   </bookViews>
   <sheets>
     <sheet name="Varying K" sheetId="1" r:id="rId1"/>
@@ -349,12 +349,17 @@
                   </a:defRPr>
                 </a:pPr>
                 <a:r>
-                  <a:rPr lang="en-US"/>
+                  <a:rPr lang="en-US" b="1">
+                    <a:solidFill>
+                      <a:sysClr val="windowText" lastClr="000000"/>
+                    </a:solidFill>
+                  </a:rPr>
                   <a:t>K</a:t>
                 </a:r>
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -406,12 +411,9 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="1000" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
+                  <a:schemeClr val="tx1"/>
                 </a:solidFill>
                 <a:latin typeface="+mn-lt"/>
                 <a:ea typeface="+mn-ea"/>
@@ -453,12 +455,9 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:defRPr sz="1000" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="65000"/>
-                        <a:lumOff val="35000"/>
-                      </a:schemeClr>
+                      <a:schemeClr val="tx1"/>
                     </a:solidFill>
                     <a:latin typeface="+mn-lt"/>
                     <a:ea typeface="+mn-ea"/>
@@ -466,12 +465,17 @@
                   </a:defRPr>
                 </a:pPr>
                 <a:r>
-                  <a:rPr lang="en-US"/>
+                  <a:rPr lang="en-US" sz="1000" b="1">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1"/>
+                    </a:solidFill>
+                  </a:rPr>
                   <a:t>TPR/FPR</a:t>
                 </a:r>
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -485,12 +489,9 @@
             <a:lstStyle/>
             <a:p>
               <a:pPr>
-                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:defRPr sz="1000" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                   <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="65000"/>
-                      <a:lumOff val="35000"/>
-                    </a:schemeClr>
+                    <a:schemeClr val="tx1"/>
                   </a:solidFill>
                   <a:latin typeface="+mn-lt"/>
                   <a:ea typeface="+mn-ea"/>
@@ -523,12 +524,9 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="1000" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
+                  <a:schemeClr val="tx1"/>
                 </a:solidFill>
                 <a:latin typeface="+mn-lt"/>
                 <a:ea typeface="+mn-ea"/>
@@ -552,6 +550,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -565,12 +564,9 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+            <a:defRPr sz="1000" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
               <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
+                <a:schemeClr val="tx1"/>
               </a:solidFill>
               <a:latin typeface="+mn-lt"/>
               <a:ea typeface="+mn-ea"/>
@@ -835,12 +831,9 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:defRPr sz="1000" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="65000"/>
-                        <a:lumOff val="35000"/>
-                      </a:schemeClr>
+                      <a:schemeClr val="tx1"/>
                     </a:solidFill>
                     <a:latin typeface="+mn-lt"/>
                     <a:ea typeface="+mn-ea"/>
@@ -848,17 +841,30 @@
                   </a:defRPr>
                 </a:pPr>
                 <a:r>
-                  <a:rPr lang="en-US"/>
+                  <a:rPr lang="en-US" b="1">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1"/>
+                    </a:solidFill>
+                  </a:rPr>
                   <a:t>b</a:t>
                 </a:r>
                 <a:r>
-                  <a:rPr lang="en-US" baseline="0"/>
+                  <a:rPr lang="en-US" b="1" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1"/>
+                    </a:solidFill>
+                  </a:rPr>
                   <a:t> (available memory)</a:t>
                 </a:r>
-                <a:endParaRPr lang="en-US"/>
+                <a:endParaRPr lang="en-US" b="1">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                </a:endParaRPr>
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -872,12 +878,9 @@
             <a:lstStyle/>
             <a:p>
               <a:pPr>
-                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:defRPr sz="1000" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                   <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="65000"/>
-                      <a:lumOff val="35000"/>
-                    </a:schemeClr>
+                    <a:schemeClr val="tx1"/>
                   </a:solidFill>
                   <a:latin typeface="+mn-lt"/>
                   <a:ea typeface="+mn-ea"/>
@@ -910,12 +913,9 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="1000" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
+                  <a:schemeClr val="tx1"/>
                 </a:solidFill>
                 <a:latin typeface="+mn-lt"/>
                 <a:ea typeface="+mn-ea"/>
@@ -957,12 +957,9 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:defRPr sz="1000" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="65000"/>
-                        <a:lumOff val="35000"/>
-                      </a:schemeClr>
+                      <a:schemeClr val="tx1"/>
                     </a:solidFill>
                     <a:latin typeface="+mn-lt"/>
                     <a:ea typeface="+mn-ea"/>
@@ -970,12 +967,17 @@
                   </a:defRPr>
                 </a:pPr>
                 <a:r>
-                  <a:rPr lang="en-US"/>
+                  <a:rPr lang="en-US" b="1">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1"/>
+                    </a:solidFill>
+                  </a:rPr>
                   <a:t>TPR/FPR</a:t>
                 </a:r>
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -989,12 +991,9 @@
             <a:lstStyle/>
             <a:p>
               <a:pPr>
-                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:defRPr sz="1000" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                   <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="65000"/>
-                      <a:lumOff val="35000"/>
-                    </a:schemeClr>
+                    <a:schemeClr val="tx1"/>
                   </a:solidFill>
                   <a:latin typeface="+mn-lt"/>
                   <a:ea typeface="+mn-ea"/>
@@ -1027,12 +1026,9 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="1000" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
+                  <a:schemeClr val="tx1"/>
                 </a:solidFill>
                 <a:latin typeface="+mn-lt"/>
                 <a:ea typeface="+mn-ea"/>
@@ -1056,6 +1052,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1069,12 +1066,9 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+            <a:defRPr sz="1000" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
               <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
+                <a:schemeClr val="tx1"/>
               </a:solidFill>
               <a:latin typeface="+mn-lt"/>
               <a:ea typeface="+mn-ea"/>
@@ -1375,12 +1369,9 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:defRPr sz="1000" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="65000"/>
-                        <a:lumOff val="35000"/>
-                      </a:schemeClr>
+                      <a:schemeClr val="tx1"/>
                     </a:solidFill>
                     <a:latin typeface="+mn-lt"/>
                     <a:ea typeface="+mn-ea"/>
@@ -1388,12 +1379,17 @@
                   </a:defRPr>
                 </a:pPr>
                 <a:r>
-                  <a:rPr lang="en-US"/>
+                  <a:rPr lang="en-US" b="1">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1"/>
+                    </a:solidFill>
+                  </a:rPr>
                   <a:t>K</a:t>
                 </a:r>
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -1407,12 +1403,9 @@
             <a:lstStyle/>
             <a:p>
               <a:pPr>
-                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:defRPr sz="1000" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                   <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="65000"/>
-                      <a:lumOff val="35000"/>
-                    </a:schemeClr>
+                    <a:schemeClr val="tx1"/>
                   </a:solidFill>
                   <a:latin typeface="+mn-lt"/>
                   <a:ea typeface="+mn-ea"/>
@@ -1445,12 +1438,9 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="1000" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
+                  <a:schemeClr val="tx1"/>
                 </a:solidFill>
                 <a:latin typeface="+mn-lt"/>
                 <a:ea typeface="+mn-ea"/>
@@ -1492,12 +1482,9 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:defRPr sz="1000" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="65000"/>
-                        <a:lumOff val="35000"/>
-                      </a:schemeClr>
+                      <a:schemeClr val="tx1"/>
                     </a:solidFill>
                     <a:latin typeface="+mn-lt"/>
                     <a:ea typeface="+mn-ea"/>
@@ -1505,12 +1492,17 @@
                   </a:defRPr>
                 </a:pPr>
                 <a:r>
-                  <a:rPr lang="en-US"/>
+                  <a:rPr lang="en-US" b="1">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1"/>
+                    </a:solidFill>
+                  </a:rPr>
                   <a:t>TPR/FPR</a:t>
                 </a:r>
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -1524,12 +1516,9 @@
             <a:lstStyle/>
             <a:p>
               <a:pPr>
-                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:defRPr sz="1000" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                   <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="65000"/>
-                      <a:lumOff val="35000"/>
-                    </a:schemeClr>
+                    <a:schemeClr val="tx1"/>
                   </a:solidFill>
                   <a:latin typeface="+mn-lt"/>
                   <a:ea typeface="+mn-ea"/>
@@ -1562,12 +1551,9 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
+                  <a:schemeClr val="tx1"/>
                 </a:solidFill>
                 <a:latin typeface="+mn-lt"/>
                 <a:ea typeface="+mn-ea"/>
@@ -1591,6 +1577,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1604,12 +1591,9 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+            <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
               <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
+                <a:schemeClr val="tx1"/>
               </a:solidFill>
               <a:latin typeface="+mn-lt"/>
               <a:ea typeface="+mn-ea"/>
@@ -1874,12 +1858,9 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:defRPr sz="1000" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="65000"/>
-                        <a:lumOff val="35000"/>
-                      </a:schemeClr>
+                      <a:schemeClr val="tx1"/>
                     </a:solidFill>
                     <a:latin typeface="+mn-lt"/>
                     <a:ea typeface="+mn-ea"/>
@@ -1887,14 +1868,26 @@
                   </a:defRPr>
                 </a:pPr>
                 <a:r>
-                  <a:rPr lang="en-US"/>
+                  <a:rPr lang="en-US" b="1">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1"/>
+                    </a:solidFill>
+                  </a:rPr>
                   <a:t>memory</a:t>
                 </a:r>
                 <a:r>
-                  <a:rPr lang="en-US" baseline="0"/>
+                  <a:rPr lang="en-US" b="1" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1"/>
+                    </a:solidFill>
+                  </a:rPr>
                   <a:t> (b)</a:t>
                 </a:r>
-                <a:endParaRPr lang="en-US"/>
+                <a:endParaRPr lang="en-US" b="1">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                </a:endParaRPr>
               </a:p>
             </c:rich>
           </c:tx>
@@ -1912,12 +1905,9 @@
             <a:lstStyle/>
             <a:p>
               <a:pPr>
-                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:defRPr sz="1000" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                   <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="65000"/>
-                      <a:lumOff val="35000"/>
-                    </a:schemeClr>
+                    <a:schemeClr val="tx1"/>
                   </a:solidFill>
                   <a:latin typeface="+mn-lt"/>
                   <a:ea typeface="+mn-ea"/>
@@ -1950,12 +1940,9 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="1000" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
+                  <a:schemeClr val="tx1"/>
                 </a:solidFill>
                 <a:latin typeface="+mn-lt"/>
                 <a:ea typeface="+mn-ea"/>
@@ -1997,12 +1984,9 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:defRPr sz="1000" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="65000"/>
-                        <a:lumOff val="35000"/>
-                      </a:schemeClr>
+                      <a:schemeClr val="tx1"/>
                     </a:solidFill>
                     <a:latin typeface="+mn-lt"/>
                     <a:ea typeface="+mn-ea"/>
@@ -2010,7 +1994,11 @@
                   </a:defRPr>
                 </a:pPr>
                 <a:r>
-                  <a:rPr lang="en-US"/>
+                  <a:rPr lang="en-US" b="1">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1"/>
+                    </a:solidFill>
+                  </a:rPr>
                   <a:t>TPR/FPR</a:t>
                 </a:r>
               </a:p>
@@ -2030,12 +2018,9 @@
             <a:lstStyle/>
             <a:p>
               <a:pPr>
-                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:defRPr sz="1000" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                   <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="65000"/>
-                      <a:lumOff val="35000"/>
-                    </a:schemeClr>
+                    <a:schemeClr val="tx1"/>
                   </a:solidFill>
                   <a:latin typeface="+mn-lt"/>
                   <a:ea typeface="+mn-ea"/>
@@ -2068,12 +2053,9 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="1000" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
+                  <a:schemeClr val="tx1"/>
                 </a:solidFill>
                 <a:latin typeface="+mn-lt"/>
                 <a:ea typeface="+mn-ea"/>
@@ -2111,12 +2093,9 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+            <a:defRPr sz="1000" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
               <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
+                <a:schemeClr val="tx1"/>
               </a:solidFill>
               <a:latin typeface="+mn-lt"/>
               <a:ea typeface="+mn-ea"/>
@@ -4793,8 +4772,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="O13" sqref="O13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4887,7 +4866,7 @@
   <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B4" sqref="A1:C4"/>
+      <selection activeCell="O11" sqref="O11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4947,7 +4926,7 @@
   <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+      <selection activeCell="O12" sqref="O12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5040,8 +5019,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C4"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="C1" sqref="A1:C4"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="AC11" sqref="U11:AC36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
